--- a/финанализ.xlsx
+++ b/финанализ.xlsx
@@ -245,16 +245,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1309650</c:v>
+                  <c:v>1159107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1309650</c:v>
+                  <c:v>1159107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1309650</c:v>
+                  <c:v>1159107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1309650</c:v>
+                  <c:v>1159107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,11 +394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230171008"/>
-        <c:axId val="194370176"/>
+        <c:axId val="207815424"/>
+        <c:axId val="207816960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230171008"/>
+        <c:axId val="207815424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -411,12 +411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194370176"/>
+        <c:crossAx val="207816960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194370176"/>
+        <c:axId val="207816960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230171008"/>
+        <c:crossAx val="207815424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -775,7 +775,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>20000000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -827,16 +827,16 @@
         <v>1500000</v>
       </c>
       <c r="C3" s="1">
-        <f>1309650+1050000</f>
-        <v>2359650</v>
+        <f>1159107+1050000</f>
+        <v>2209107</v>
       </c>
       <c r="D3" s="1">
         <f>B3-C3</f>
-        <v>-859650</v>
+        <v>-709107</v>
       </c>
       <c r="E3" s="1">
         <f>E2+D3</f>
-        <v>19140350</v>
+        <v>1590893</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -848,15 +848,15 @@
         <v>1500000</v>
       </c>
       <c r="C4" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D15" si="1">B4-C4</f>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E15" si="2">E3+D4</f>
-        <v>19330700</v>
+        <v>1931786</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -868,15 +868,15 @@
         <v>1500000</v>
       </c>
       <c r="C5" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>19521050</v>
+        <v>2272679</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -888,15 +888,15 @@
         <v>1500000</v>
       </c>
       <c r="C6" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>19711400</v>
+        <v>2613572</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -908,15 +908,15 @@
         <v>1500000</v>
       </c>
       <c r="C7" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>19901750</v>
+        <v>2954465</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -928,15 +928,15 @@
         <v>1500000</v>
       </c>
       <c r="C8" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>20092100</v>
+        <v>3295358</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -948,15 +948,15 @@
         <v>1500000</v>
       </c>
       <c r="C9" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>20282450</v>
+        <v>3636251</v>
       </c>
       <c r="J9" t="s">
         <v>28</v>
@@ -983,30 +983,30 @@
         <v>1500000</v>
       </c>
       <c r="C10" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>20472800</v>
+        <v>3977144</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="L10">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="M10">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="N10">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1018,15 +1018,15 @@
         <v>1500000</v>
       </c>
       <c r="C11" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>20663150</v>
+        <v>4318037</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -1053,15 +1053,15 @@
         <v>1500000</v>
       </c>
       <c r="C12" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>20853500</v>
+        <v>4658930</v>
       </c>
       <c r="J12" t="s">
         <v>3</v>
@@ -1091,15 +1091,15 @@
         <v>1500000</v>
       </c>
       <c r="C13" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>21043850</v>
+        <v>4999823</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1111,15 +1111,15 @@
         <v>1500000</v>
       </c>
       <c r="C14" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>21234200</v>
+        <v>5340716</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
         <v>1500000</v>
       </c>
       <c r="C15" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>21424550</v>
+        <v>5681609</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1151,15 +1151,15 @@
         <v>1500000</v>
       </c>
       <c r="C16" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ref="D16:D22" si="3">B16-C16</f>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ref="E16:E22" si="4">E15+D16</f>
-        <v>21614900</v>
+        <v>6022502</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,15 +1171,15 @@
         <v>1500000</v>
       </c>
       <c r="C17" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="4"/>
-        <v>21805250</v>
+        <v>6363395</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,15 +1191,15 @@
         <v>1500000</v>
       </c>
       <c r="C18" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="4"/>
-        <v>21995600</v>
+        <v>6704288</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,15 +1211,15 @@
         <v>1500000</v>
       </c>
       <c r="C19" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="4"/>
-        <v>22185950</v>
+        <v>7045181</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1231,15 +1231,15 @@
         <v>1500000</v>
       </c>
       <c r="C20" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="4"/>
-        <v>22376300</v>
+        <v>7386074</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,15 +1251,15 @@
         <v>1500000</v>
       </c>
       <c r="C21" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="4"/>
-        <v>22566650</v>
+        <v>7726967</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,15 +1271,15 @@
         <v>1500000</v>
       </c>
       <c r="C22" s="1">
-        <v>1309650</v>
+        <v>1159107</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>190350</v>
+        <v>340893</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>22757000</v>
+        <v>8067860</v>
       </c>
     </row>
   </sheetData>

--- a/финанализ.xlsx
+++ b/финанализ.xlsx
@@ -394,11 +394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207815424"/>
-        <c:axId val="207816960"/>
+        <c:axId val="255533440"/>
+        <c:axId val="255534976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207815424"/>
+        <c:axId val="255533440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -411,12 +411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207816960"/>
+        <c:crossAx val="255534976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207816960"/>
+        <c:axId val="255534976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,9 +428,188 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207815424"/>
+        <c:crossAx val="255533440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>накопление</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1590893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1931786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2272679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2613572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2954465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3295358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3636251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3977144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4318037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4658930</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4999823</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5340716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5681609</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6022502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6363395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6704288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7045181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7386074</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7726967</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8067860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="157393664"/>
+        <c:axId val="157395200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="157393664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157395200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157395200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157393664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -477,6 +656,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>

--- a/финанализ.xlsx
+++ b/финанализ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>месяц</t>
   </si>
@@ -103,13 +103,43 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Сила / Оценка</t>
+  </si>
+  <si>
+    <t>Выраженность риска</t>
+  </si>
+  <si>
+    <t>Степень влияния</t>
+  </si>
+  <si>
+    <t>Возможность решения</t>
+  </si>
+  <si>
+    <t>Итоговый рейтинг</t>
+  </si>
+  <si>
+    <t>Конкуренция среди существующих игроков</t>
+  </si>
+  <si>
+    <t>Угроза появления новых игроков</t>
+  </si>
+  <si>
+    <t>Угроза товаров-заменителей</t>
+  </si>
+  <si>
+    <t>Власть поставщиков</t>
+  </si>
+  <si>
+    <t>Власть покупателей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +156,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,14 +195,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,11 +495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255533440"/>
-        <c:axId val="255534976"/>
+        <c:axId val="152699648"/>
+        <c:axId val="152701184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255533440"/>
+        <c:axId val="152699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -411,12 +512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255534976"/>
+        <c:crossAx val="152701184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255534976"/>
+        <c:axId val="152701184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255533440"/>
+        <c:crossAx val="152699648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -575,11 +676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157393664"/>
-        <c:axId val="157395200"/>
+        <c:axId val="152729856"/>
+        <c:axId val="152731648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157393664"/>
+        <c:axId val="152729856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157395200"/>
+        <c:crossAx val="152731648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157395200"/>
+        <c:axId val="152731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157393664"/>
+        <c:crossAx val="152729856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,12 +1601,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
+        <f>B2+C2-D2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E6" si="0">B3+C3-D3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
